--- a/pred_ohlcv/54_21/2019-10-27 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FZZ ohlcv.xlsx
@@ -5852,7 +5852,7 @@
         <v>-6686019.527010604</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-6677875.361310604</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-6643144.760710604</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-6642741.117010605</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-6525184.843310605</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-6525184.843310605</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-6525173.843310605</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6907234.533810605</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-6445748.196910605</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6439758.196910605</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-6433758.196910605</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-6427758.196910605</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-6419758.196910605</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-6982693.59210166</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-6970417.05960166</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-6970417.05960166</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6927146.64600166</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-7573448.62320166</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7718579.03500166</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7806360.30300166</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7707235.98210166</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7721321.83760166</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7727121.83760166</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7727111.83760166</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7727100.726501659</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7727100.726501659</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7728263.95780166</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7728241.73560166</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7731270.81800166</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-7724876.439901659</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7724876.439901659</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7734276.439901659</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7751496.439901659</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7750856.439901659</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7750856.439901659</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-7750836.439901659</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7750896.44520166</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-7750886.44520166</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-9146684.130801659</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-9138451.694501659</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-9523652.985501658</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-9561750.298501657</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-9565742.178801658</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-9565242.178801658</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-9565252.178801658</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-9565220.178801658</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-9565220.178801658</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-9565180.560301658</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-9545283.848001657</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-9553557.517901657</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-9904514.495301656</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-10259292.60450166</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-10581668.57200166</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-13465540.29400166</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-13465540.29400166</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-13422603.59000166</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-13669766.13470166</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-12781990.13470166</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-12781990.13470166</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-13103639.05200166</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-11688349.61810165</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-10051293.76410165</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-9244797.513101654</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-9349980.172201654</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-9635082.619601654</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-9635092.619601654</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-9615484.375601653</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-9879682.875701653</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-9879682.875701653</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-9878104.425801653</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-10002434.99810165</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-10002014.99810165</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-9877230.652201654</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-9894803.496601654</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-9908497.962501654</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-9716633.379201654</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-9712623.270101655</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-9548417.197501656</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-9387373.625201656</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-9119874.469624994</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-9858899.182497332</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-9628737.487397332</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-9667457.878197331</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-9667457.878197331</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-10009895.40529733</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-10226107.32729733</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-10496154.87359733</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-10167364.58459733</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-10167364.58459733</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-9929696.62649733</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-10228696.62649733</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-10228696.62649733</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-8539513.33689733</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-8224156.15209733</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-8604072.08249733</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-8731954.63559733</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-8599785.48829733</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-7438835.90749733</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>19952519.99713413</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>24593021.13634153</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FZZ ohlcv.xlsx
@@ -6996,7 +6996,7 @@
         <v>-6907234.533810605</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-6445748.196910605</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6439758.196910605</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-6433758.196910605</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-6427758.196910605</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-6419758.196910605</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-6982693.59210166</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-6970417.05960166</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-6970417.05960166</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6927146.64600166</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-7573448.62320166</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7718579.03500166</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7806360.30300166</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7707235.98210166</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7721321.83760166</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7727121.83760166</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7727111.83760166</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7727100.726501659</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7727100.726501659</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7728263.95780166</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7728241.73560166</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7731270.81800166</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-7724876.439901659</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7724876.439901659</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7734276.439901659</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7751496.439901659</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7750856.439901659</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7750856.439901659</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-7750836.439901659</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7750896.44520166</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-7750886.44520166</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-9146684.130801659</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-9138451.694501659</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-9523652.985501658</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-9561750.298501657</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-9565742.178801658</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-9565242.178801658</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-9565252.178801658</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-9565220.178801658</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-9565220.178801658</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-9565180.560301658</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-13465540.29400166</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-13465540.29400166</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-12781990.13470166</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-13103639.05200166</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-13103629.05200166</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-13103629.05200166</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-10051293.76410165</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-9244797.513101654</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-9349980.172201654</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-9635082.619601654</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-9635092.619601654</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-9615484.375601653</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-9879682.875701653</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-9879682.875701653</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-9878104.425801653</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-10002434.99810165</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-10002014.99810165</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-9877230.652201654</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-9894803.496601654</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-9908497.962501654</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-9716633.379201654</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-9712623.270101655</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-9548417.197501656</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-9387373.625201656</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-9119874.469624994</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-9858899.182497332</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-9628737.487397332</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-9667457.878197331</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-9667457.878197331</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-10009895.40529733</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-10226107.32729733</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-10496154.87359733</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-10167364.58459733</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-10228696.62649733</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-10228696.62649733</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-8224156.15209733</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-8604072.08249733</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-8731954.63559733</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-8599785.48829733</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-7438835.90749733</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>19952519.99713413</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>24593021.13634153</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
